--- a/biology/Microbiologie/Gérard_Bignot/Gérard_Bignot.xlsx
+++ b/biology/Microbiologie/Gérard_Bignot/Gérard_Bignot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Bignot</t>
+          <t>Gérard_Bignot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard Bignot[1] (Dieppe, Le Pollet, 1er février 1935 - Paris 14e, 1er juin 2007[2]) est un géologue, historien, stratigraphe et micropaléontologue français, spécialiste des foraminifères.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Bignot (Dieppe, Le Pollet, 1er février 1935 - Paris 14e, 1er juin 2007) est un géologue, historien, stratigraphe et micropaléontologue français, spécialiste des foraminifères.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Bignot</t>
+          <t>Gérard_Bignot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Géologue et paléontologue
-Gérard Bignot est né 1935 à Dieppe dans une famille ouvrière modeste, dont le père exerce la profession de chaudronnier et le grand-père celui de pêcheur. Son instituteur l’encourage à faire des études. Il fréquente l’école Michelet et le Collège Jehan Ango, puis obtient son baccalauréat, dans la Section des Sciences Expérimentales dans les années 1950. À 18 ans, il étudie à Rouen en propédeutique (SPCN) puis part à Caen où passe une licence de sciences naturelles.
-Il termine ses études en 3e cycle à Paris au Laboratoire de Géologie de la Sorbonne, où il eut comme enseignant le professeur Jean Cuvillier, avec une thèse sur le Cap d'Ailly[3] (Sainte-Marguerite-sur-Mer) obtenue en 1961 (« Étude sédimentologique et micropaléontologique de l'Éocène du cap d'Ailly »). Il obtient son doctorat puis devient Docteur d’État, et, après avoir présenté une thèse sur la Yougoslavie en juin 1972 (« Recherches stratigraphiques sur les calcaires du Crétacé supérieur et de l'Éocène d'Istrie et des régions voisines (Italie, Yougoslavie). Essai de révision du Liburnien »).
+          <t>Géologue et paléontologue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Bignot est né 1935 à Dieppe dans une famille ouvrière modeste, dont le père exerce la profession de chaudronnier et le grand-père celui de pêcheur. Son instituteur l’encourage à faire des études. Il fréquente l’école Michelet et le Collège Jehan Ango, puis obtient son baccalauréat, dans la Section des Sciences Expérimentales dans les années 1950. À 18 ans, il étudie à Rouen en propédeutique (SPCN) puis part à Caen où passe une licence de sciences naturelles.
+Il termine ses études en 3e cycle à Paris au Laboratoire de Géologie de la Sorbonne, où il eut comme enseignant le professeur Jean Cuvillier, avec une thèse sur le Cap d'Ailly (Sainte-Marguerite-sur-Mer) obtenue en 1961 (« Étude sédimentologique et micropaléontologique de l'Éocène du cap d'Ailly »). Il obtient son doctorat puis devient Docteur d’État, et, après avoir présenté une thèse sur la Yougoslavie en juin 1972 (« Recherches stratigraphiques sur les calcaires du Crétacé supérieur et de l'Éocène d'Istrie et des régions voisines (Italie, Yougoslavie). Essai de révision du Liburnien »).
 Il entre en 1963, à l'Université Pierre-et-Marie-Curie à la faculté de Jussieu où il deviendra un professeur et un chercheur de renommée mondiale : Il y sera assistant, maître-assistant, maître de conférence, puis professeur de micropaléontologie au sein de l’ Unité de formation et de recherche 928 des sciences de la terre et évolution des milieux naturels et il consacrera la moitié de son temps à l’enseignement supérieur, l’autre moitié comme chercheur au CNRS. Ses recherches sur la micropaléontologie le conduisent en Yougoslavie, en Hongrie, en Égypte, à Madagascar. Il publiera dans la revue scientifique « Revue de micro paléontologie» à partir de 1969, des travaux sur les « microfossiles de position systématique variée » (bactéries, pithonelles, pseudosarcellidés, serpulidés, ostracodes, etc.) qui firent l'objet de 215 publications.
-Dieppois
-D'origine dieppoise, il publiera également des articles d'histoire, par exemple dans le bulletin des Amys du Vieux Dieppe, association dont il fut vice-président, dans Connaissance de Dieppe, dans Les amis de Fécamp Terre-Neuve, dans la revue du fonds ancien et local « Quiquengrogne »[4]. Il fit quelques travaux sur Théophile Gelée, Tranquille Féret, Josse Hardy. Il écrivit également de nombreux articles sur la pêche dieppoise, notamment sur les pêcheries à Dieppe, les chalutiers à vapeur mais aussi sur bien d'autres sujets comme l'École de cartographie de Dieppe. Il est également membre de la Société géologique de Normandie et des amis du muséum du Havre[5], de l'Association des géologues du bassin de Paris, de l'Association paléontologique française, de la Société des sciences naturelles et amis du Museum de Rouen, de la Société géologique de France et de l'Association paléontologique de Villers-sur-Mer[6].
-Cartographe, il réalisera une carte de Dieppe-Est et Dieppe-Ouest pour l'IGN[7].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gérard_Bignot</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Bignot</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dieppois</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'origine dieppoise, il publiera également des articles d'histoire, par exemple dans le bulletin des Amys du Vieux Dieppe, association dont il fut vice-président, dans Connaissance de Dieppe, dans Les amis de Fécamp Terre-Neuve, dans la revue du fonds ancien et local « Quiquengrogne ». Il fit quelques travaux sur Théophile Gelée, Tranquille Féret, Josse Hardy. Il écrivit également de nombreux articles sur la pêche dieppoise, notamment sur les pêcheries à Dieppe, les chalutiers à vapeur mais aussi sur bien d'autres sujets comme l'École de cartographie de Dieppe. Il est également membre de la Société géologique de Normandie et des amis du muséum du Havre, de l'Association des géologues du bassin de Paris, de l'Association paléontologique française, de la Société des sciences naturelles et amis du Museum de Rouen, de la Société géologique de France et de l'Association paléontologique de Villers-sur-Mer.
+Cartographe, il réalisera une carte de Dieppe-Est et Dieppe-Ouest pour l'IGN.
 Il meurt âgé de 73 ans, d'une maladie (mésothéliome) provoquée par l'amiante de Jussieu et repose au cimetière du Pollet à Dieppe, non loin du lieu où il grandit.
 </t>
         </is>
